--- a/results2.xlsx
+++ b/results2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fanos\Desktop\University\UEA - Year 3\Computer Vision\ComputerVision_cw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2354042D-3B8D-4C85-B899-00D68194FDA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4CFDB2-5E43-4671-9FFE-961B952271B4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{02C28124-BB39-4B04-A823-086F46C0058C}"/>
   </bookViews>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB1DCBB-A97D-4C86-9775-B0A9AEFEBB2E}">
   <dimension ref="A1:J617"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A570" workbookViewId="0">
+      <selection activeCell="G590" sqref="A590:G590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
